--- a/NFLX.xlsx
+++ b/NFLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ACF063-9BCB-4FA5-A417-31BDAAF3AA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D2A369-F462-458E-801E-1A9666816E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23910" yWindow="2175" windowWidth="21255" windowHeight="16125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51290" yWindow="3640" windowWidth="20530" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="8" r:id="rId1"/>
@@ -1226,6 +1226,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1242,14 +1250,6 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4943,7 +4943,7 @@
   <dimension ref="M2:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4953,7 +4953,7 @@
         <v>104</v>
       </c>
       <c r="N2" s="89">
-        <v>1214</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="3" spans="13:15" x14ac:dyDescent="0.25">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="N4" s="92">
         <f>+N2*N3</f>
-        <v>530518</v>
+        <v>490314</v>
       </c>
       <c r="O4" s="91"/>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="N7" s="92">
         <f>+N4-N5+N6</f>
-        <v>537164</v>
+        <v>496960</v>
       </c>
     </row>
   </sheetData>
@@ -5359,69 +5359,69 @@
       <c r="AD8" s="96"/>
       <c r="AE8" s="96"/>
     </row>
-    <row r="9" spans="1:31" s="133" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B9" s="134" t="s">
+    <row r="9" spans="1:31" s="126" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B9" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="135">
+      <c r="C9" s="128">
         <v>5767691</v>
       </c>
-      <c r="D9" s="135">
+      <c r="D9" s="128">
         <v>6148286</v>
       </c>
-      <c r="E9" s="135">
+      <c r="E9" s="128">
         <v>6435637</v>
       </c>
-      <c r="F9" s="135">
+      <c r="F9" s="128">
         <v>6644442</v>
       </c>
-      <c r="G9" s="135">
+      <c r="G9" s="128">
         <v>7163282</v>
       </c>
-      <c r="H9" s="135">
+      <c r="H9" s="128">
         <v>7341777</v>
       </c>
-      <c r="I9" s="135">
+      <c r="I9" s="128">
         <v>7483467</v>
       </c>
-      <c r="J9" s="135">
+      <c r="J9" s="128">
         <v>7709318</v>
       </c>
-      <c r="K9" s="135">
+      <c r="K9" s="128">
         <v>7867767</v>
       </c>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="135"/>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="135"/>
-      <c r="R9" s="135"/>
-      <c r="S9" s="135">
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="128">
         <v>9370</v>
       </c>
-      <c r="T9" s="135">
+      <c r="T9" s="128">
         <v>9559</v>
       </c>
-      <c r="U9" s="135">
+      <c r="U9" s="128">
         <v>9825</v>
       </c>
-      <c r="V9" s="135">
+      <c r="V9" s="128">
         <v>10247</v>
       </c>
-      <c r="W9" s="135">
+      <c r="W9" s="128">
         <v>10543</v>
       </c>
-      <c r="X9" s="135"/>
-      <c r="Y9" s="135"/>
-      <c r="Z9" s="135"/>
-      <c r="AA9" s="135"/>
-      <c r="AB9" s="135"/>
-      <c r="AD9" s="136">
+      <c r="X9" s="128"/>
+      <c r="Y9" s="128"/>
+      <c r="Z9" s="128"/>
+      <c r="AA9" s="128"/>
+      <c r="AB9" s="128"/>
+      <c r="AD9" s="129">
         <f>SUM(C9:F9)</f>
         <v>24996056</v>
       </c>
-      <c r="AE9" s="136">
+      <c r="AE9" s="129">
         <f>SUM(G9:J9)</f>
         <v>29697844</v>
       </c>
@@ -8408,18 +8408,18 @@
     <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="95"/>
       <c r="B5" s="72"/>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127" t="s">
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
       <c r="K5" s="99" t="s">
         <v>33</v>
       </c>
@@ -10828,14 +10828,14 @@
       <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
     </row>
     <row r="5" spans="1:19" s="32" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
@@ -10843,21 +10843,21 @@
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="F5" s="46"/>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
       <c r="K5" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="128" t="s">
+      <c r="L5" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="132"/>
       <c r="P5" s="47" t="s">
         <v>57</v>
       </c>
@@ -12287,58 +12287,58 @@
     </row>
     <row r="45" spans="1:19" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
-      <c r="F45" s="132" t="s">
+      <c r="F45" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="132"/>
-      <c r="K45" s="132"/>
-      <c r="L45" s="132"/>
-      <c r="M45" s="132"/>
-      <c r="N45" s="132"/>
-      <c r="O45" s="132"/>
-      <c r="P45" s="132"/>
-      <c r="Q45" s="132"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="136"/>
+      <c r="L45" s="136"/>
+      <c r="M45" s="136"/>
+      <c r="N45" s="136"/>
+      <c r="O45" s="136"/>
+      <c r="P45" s="136"/>
+      <c r="Q45" s="136"/>
       <c r="R45" s="62"/>
       <c r="S45" s="62"/>
     </row>
     <row r="46" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
-      <c r="F46" s="132" t="s">
+      <c r="F46" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="132"/>
-      <c r="K46" s="132"/>
-      <c r="L46" s="132"/>
-      <c r="M46" s="132"/>
-      <c r="N46" s="132"/>
-      <c r="O46" s="132"/>
-      <c r="P46" s="132"/>
-      <c r="Q46" s="132"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="136"/>
+      <c r="K46" s="136"/>
+      <c r="L46" s="136"/>
+      <c r="M46" s="136"/>
+      <c r="N46" s="136"/>
+      <c r="O46" s="136"/>
+      <c r="P46" s="136"/>
+      <c r="Q46" s="136"/>
       <c r="R46" s="62"/>
       <c r="S46" s="62"/>
     </row>
     <row r="47" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="26"/>
-      <c r="F47" s="132" t="s">
+      <c r="F47" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="132"/>
-      <c r="K47" s="132"/>
-      <c r="L47" s="132"/>
-      <c r="M47" s="132"/>
-      <c r="N47" s="132"/>
-      <c r="O47" s="132"/>
-      <c r="P47" s="132"/>
-      <c r="Q47" s="132"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="136"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="136"/>
+      <c r="K47" s="136"/>
+      <c r="L47" s="136"/>
+      <c r="M47" s="136"/>
+      <c r="N47" s="136"/>
+      <c r="O47" s="136"/>
+      <c r="P47" s="136"/>
+      <c r="Q47" s="136"/>
       <c r="R47" s="62"/>
       <c r="S47" s="62"/>
     </row>

--- a/NFLX.xlsx
+++ b/NFLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D2A369-F462-458E-801E-1A9666816E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DB7B46-734D-4272-ABE1-618C0B8A120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51290" yWindow="3640" windowWidth="20530" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="240" windowWidth="23430" windowHeight="20070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="8" r:id="rId1"/>
@@ -246,7 +246,7 @@
     <definedName name="PivotTop" localSheetId="4">'[1]Revsum - trend'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Balance Sheet'!$A$1:$O$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Cashflow!$A$1:$M$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Model!$A$1:$K$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Model!$A$1:$K$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Regional Information'!$A$1:$Q$49</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">#REF!,#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">#REF!,#REF!</definedName>
@@ -360,7 +360,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="162">
   <si>
     <t>Total liabilities and stockholders' equity</t>
   </si>
@@ -792,6 +792,60 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>Content additions</t>
+  </si>
+  <si>
+    <t>Content amortization</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>US Revenue</t>
+  </si>
+  <si>
+    <t>LATAM</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1083,7 @@
     <xf numFmtId="37" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1251,6 +1305,8 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1280,16 +1336,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>52552</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>43793</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>59121</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>52552</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>6569</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>43793</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>118241</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1304,8 +1360,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17558845" y="59121"/>
-          <a:ext cx="0" cy="9308224"/>
+          <a:off x="18104069" y="0"/>
+          <a:ext cx="0" cy="10900103"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4942,8 +4998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD311BC2-3701-4C52-B796-2C2225388DA0}">
   <dimension ref="M2:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4961,10 +5017,10 @@
         <v>105</v>
       </c>
       <c r="N3" s="92">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="O3" s="90" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="13:15" x14ac:dyDescent="0.25">
@@ -4973,7 +5029,7 @@
       </c>
       <c r="N4" s="92">
         <f>+N2*N3</f>
-        <v>490314</v>
+        <v>486948</v>
       </c>
       <c r="O4" s="91"/>
     </row>
@@ -4982,10 +5038,10 @@
         <v>107</v>
       </c>
       <c r="N5" s="92">
-        <v>8371</v>
+        <v>9324</v>
       </c>
       <c r="O5" s="90" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="13:15" x14ac:dyDescent="0.25">
@@ -4993,10 +5049,10 @@
         <v>108</v>
       </c>
       <c r="N6" s="92">
-        <v>15017</v>
+        <v>14463</v>
       </c>
       <c r="O6" s="90" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="13:15" x14ac:dyDescent="0.25">
@@ -5005,7 +5061,7 @@
       </c>
       <c r="N7" s="92">
         <f>+N4-N5+N6</f>
-        <v>496960</v>
+        <v>492087</v>
       </c>
     </row>
   </sheetData>
@@ -5018,32 +5074,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE45"/>
+  <dimension ref="A1:AI73"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
+      <selection pane="bottomRight" activeCell="AL29" sqref="AL29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="71" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.36328125" style="71" customWidth="1"/>
-    <col min="3" max="28" width="10.7265625" style="83" customWidth="1"/>
+    <col min="3" max="18" width="10.7265625" style="83" customWidth="1"/>
+    <col min="19" max="26" width="9.08984375" style="83" customWidth="1"/>
+    <col min="27" max="28" width="10.7265625" style="83" customWidth="1"/>
     <col min="29" max="29" width="9.1796875" style="71"/>
-    <col min="30" max="31" width="13" style="83" customWidth="1"/>
-    <col min="32" max="16384" width="9.1796875" style="71"/>
+    <col min="30" max="31" width="8.90625" style="83" customWidth="1"/>
+    <col min="32" max="35" width="8.90625" style="71" customWidth="1"/>
+    <col min="36" max="16384" width="9.1796875" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
         <v>102</v>
       </c>
       <c r="B1" s="72"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="72"/>
       <c r="B2" s="72"/>
       <c r="C2" s="78" t="s">
@@ -5126,8 +5185,24 @@
       <c r="AE2" s="78">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" s="125" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="AF2" s="71">
+        <f>+AE2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="AG2" s="71">
+        <f>+AF2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="AH2" s="71">
+        <f>+AG2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AI2" s="71">
+        <f>+AH2+1</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" s="125" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" s="79" t="s">
         <v>103</v>
@@ -5175,7 +5250,7 @@
       <c r="AD3" s="96"/>
       <c r="AE3" s="96"/>
     </row>
-    <row r="4" spans="1:31" s="77" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" s="77" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="93"/>
       <c r="B4" s="93" t="s">
         <v>110</v>
@@ -5213,7 +5288,7 @@
       <c r="AD4" s="97"/>
       <c r="AE4" s="97"/>
     </row>
-    <row r="5" spans="1:31" s="77" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" s="77" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="93"/>
       <c r="B5" s="93" t="s">
         <v>111</v>
@@ -5251,7 +5326,7 @@
       <c r="AD5" s="97"/>
       <c r="AE5" s="97"/>
     </row>
-    <row r="6" spans="1:31" s="77" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" s="77" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="93"/>
       <c r="B6" s="93" t="s">
         <v>117</v>
@@ -5289,7 +5364,7 @@
       <c r="AD6" s="97"/>
       <c r="AE6" s="97"/>
     </row>
-    <row r="7" spans="1:31" s="77" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" s="77" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="93"/>
       <c r="B7" s="93" t="s">
         <v>118</v>
@@ -5327,7 +5402,7 @@
       <c r="AD7" s="97"/>
       <c r="AE7" s="97"/>
     </row>
-    <row r="8" spans="1:31" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="72"/>
       <c r="B8" s="72"/>
       <c r="C8" s="78"/>
@@ -5359,759 +5434,778 @@
       <c r="AD8" s="96"/>
       <c r="AE8" s="96"/>
     </row>
-    <row r="9" spans="1:31" s="126" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B9" s="127" t="s">
+    <row r="9" spans="1:35" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="72"/>
+      <c r="B9" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="94">
+        <v>4224.3149999999996</v>
+      </c>
+      <c r="T9" s="94">
+        <v>4295.5600000000004</v>
+      </c>
+      <c r="U9" s="94">
+        <v>4322.4759999999997</v>
+      </c>
+      <c r="V9" s="94">
+        <v>4517.018</v>
+      </c>
+      <c r="W9" s="94">
+        <v>4617.098</v>
+      </c>
+      <c r="X9" s="94">
+        <v>4929.0029999999997</v>
+      </c>
+      <c r="Y9" s="94">
+        <v>5071.7809999999999</v>
+      </c>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78"/>
+      <c r="AD9" s="96"/>
+      <c r="AE9" s="96"/>
+    </row>
+    <row r="10" spans="1:35" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="72"/>
+      <c r="B10" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="94">
+        <v>2958.1930000000002</v>
+      </c>
+      <c r="T10" s="94">
+        <v>3007.7719999999999</v>
+      </c>
+      <c r="U10" s="94">
+        <v>3133.4659999999999</v>
+      </c>
+      <c r="V10" s="94">
+        <v>3287.6039999999998</v>
+      </c>
+      <c r="W10" s="94">
+        <v>3404.6759999999999</v>
+      </c>
+      <c r="X10" s="94">
+        <v>3538.1750000000002</v>
+      </c>
+      <c r="Y10" s="94">
+        <v>3699.0520000000001</v>
+      </c>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="78"/>
+      <c r="AD10" s="96"/>
+      <c r="AE10" s="96"/>
+    </row>
+    <row r="11" spans="1:35" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="72"/>
+      <c r="B11" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="94">
+        <v>1165.008</v>
+      </c>
+      <c r="T11" s="94">
+        <v>1204.145</v>
+      </c>
+      <c r="U11" s="94">
+        <v>1240.8920000000001</v>
+      </c>
+      <c r="V11" s="94">
+        <v>1229.771</v>
+      </c>
+      <c r="W11" s="94">
+        <v>1261.934</v>
+      </c>
+      <c r="X11" s="94">
+        <v>1306.7349999999999</v>
+      </c>
+      <c r="Y11" s="94">
+        <v>1370.913</v>
+      </c>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="96"/>
+    </row>
+    <row r="12" spans="1:35" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="72"/>
+      <c r="B12" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="94">
+        <v>1022.924</v>
+      </c>
+      <c r="T12" s="94">
+        <v>1051.8330000000001</v>
+      </c>
+      <c r="U12" s="94">
+        <v>1127.8689999999999</v>
+      </c>
+      <c r="V12" s="94">
+        <v>1212.1199999999999</v>
+      </c>
+      <c r="W12" s="94">
+        <v>1259.0930000000001</v>
+      </c>
+      <c r="X12" s="94">
+        <v>1305.2529999999999</v>
+      </c>
+      <c r="Y12" s="94">
+        <v>1368.5609999999999</v>
+      </c>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AD12" s="96"/>
+      <c r="AE12" s="96"/>
+    </row>
+    <row r="13" spans="1:35" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="78"/>
+      <c r="AB13" s="78"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="96"/>
+    </row>
+    <row r="14" spans="1:35" s="126" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B14" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="128">
-        <v>5767691</v>
-      </c>
-      <c r="D9" s="128">
-        <v>6148286</v>
-      </c>
-      <c r="E9" s="128">
-        <v>6435637</v>
-      </c>
-      <c r="F9" s="128">
-        <v>6644442</v>
-      </c>
-      <c r="G9" s="128">
-        <v>7163282</v>
-      </c>
-      <c r="H9" s="128">
-        <v>7341777</v>
-      </c>
-      <c r="I9" s="128">
-        <v>7483467</v>
-      </c>
-      <c r="J9" s="128">
-        <v>7709318</v>
-      </c>
-      <c r="K9" s="128">
-        <v>7867767</v>
-      </c>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="128"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128">
-        <v>9370</v>
-      </c>
-      <c r="T9" s="128">
-        <v>9559</v>
-      </c>
-      <c r="U9" s="128">
-        <v>9825</v>
-      </c>
-      <c r="V9" s="128">
-        <v>10247</v>
-      </c>
-      <c r="W9" s="128">
-        <v>10543</v>
-      </c>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="128"/>
-      <c r="AB9" s="128"/>
-      <c r="AD9" s="129">
-        <f>SUM(C9:F9)</f>
-        <v>24996056</v>
-      </c>
-      <c r="AE9" s="129">
-        <f>SUM(G9:J9)</f>
-        <v>29697844</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="93" t="s">
+      <c r="C14" s="128">
+        <v>5767.6909999999998</v>
+      </c>
+      <c r="D14" s="128">
+        <v>6148.2860000000001</v>
+      </c>
+      <c r="E14" s="128">
+        <v>6435.6369999999997</v>
+      </c>
+      <c r="F14" s="128">
+        <v>6644.442</v>
+      </c>
+      <c r="G14" s="128">
+        <v>7163.2820000000002</v>
+      </c>
+      <c r="H14" s="128">
+        <v>7341.777</v>
+      </c>
+      <c r="I14" s="128">
+        <v>7483.4669999999996</v>
+      </c>
+      <c r="J14" s="128">
+        <v>7709.3180000000002</v>
+      </c>
+      <c r="K14" s="128">
+        <v>7867.7669999999998</v>
+      </c>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="128"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="128"/>
+      <c r="S14" s="128">
+        <f>SUM(S9:S12)</f>
+        <v>9370.4399999999987</v>
+      </c>
+      <c r="T14" s="128">
+        <f>SUM(T9:T12)</f>
+        <v>9559.3100000000013</v>
+      </c>
+      <c r="U14" s="128">
+        <f>SUM(U9:U12)</f>
+        <v>9824.7029999999995</v>
+      </c>
+      <c r="V14" s="128">
+        <f>SUM(V9:V12)</f>
+        <v>10246.512999999999</v>
+      </c>
+      <c r="W14" s="128">
+        <f>SUM(W9:W12)</f>
+        <v>10542.800999999999</v>
+      </c>
+      <c r="X14" s="128">
+        <f>SUM(X9:X12)</f>
+        <v>11079.166000000001</v>
+      </c>
+      <c r="Y14" s="128">
+        <f>SUM(Y9:Y12)</f>
+        <v>11510.307000000001</v>
+      </c>
+      <c r="Z14" s="128">
+        <f>+V14*1.15</f>
+        <v>11783.489949999997</v>
+      </c>
+      <c r="AA14" s="128"/>
+      <c r="AB14" s="128"/>
+      <c r="AD14" s="129">
+        <f>SUM(C14:F14)</f>
+        <v>24996.055999999997</v>
+      </c>
+      <c r="AE14" s="129">
+        <f>SUM(G14:J14)</f>
+        <v>29697.844000000001</v>
+      </c>
+      <c r="AH14" s="126">
+        <f>SUM(S14:V14)</f>
+        <v>39000.966</v>
+      </c>
+      <c r="AI14" s="126">
+        <f>SUM(W14:Z14)</f>
+        <v>44915.76395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="76">
-        <v>3599701</v>
-      </c>
-      <c r="D10" s="76">
-        <v>3643707</v>
-      </c>
-      <c r="E10" s="76">
-        <v>3867751</v>
-      </c>
-      <c r="F10" s="76">
-        <v>4165160</v>
-      </c>
-      <c r="G10" s="76">
-        <v>3868511</v>
-      </c>
-      <c r="H10" s="76">
-        <v>4018008</v>
-      </c>
-      <c r="I10" s="76">
-        <v>4206589</v>
-      </c>
-      <c r="J10" s="76">
-        <v>5239575</v>
-      </c>
-      <c r="K10" s="76">
-        <v>4284705</v>
-      </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76">
+      <c r="C15" s="76">
+        <v>3599.701</v>
+      </c>
+      <c r="D15" s="76">
+        <v>3643.7069999999999</v>
+      </c>
+      <c r="E15" s="76">
+        <v>3867.7510000000002</v>
+      </c>
+      <c r="F15" s="76">
+        <v>4165.16</v>
+      </c>
+      <c r="G15" s="76">
+        <v>3868.511</v>
+      </c>
+      <c r="H15" s="76">
+        <v>4018.0079999999998</v>
+      </c>
+      <c r="I15" s="76">
+        <v>4206.5889999999999</v>
+      </c>
+      <c r="J15" s="76">
+        <v>5239.5749999999998</v>
+      </c>
+      <c r="K15" s="76">
+        <v>4284.7049999999999</v>
+      </c>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76">
         <v>4977.0730000000003</v>
       </c>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76">
+      <c r="T15" s="76">
+        <v>5174.143</v>
+      </c>
+      <c r="U15" s="76">
+        <v>5119.884</v>
+      </c>
+      <c r="V15" s="76">
         <v>5767.3639999999996</v>
       </c>
-      <c r="W10" s="76">
+      <c r="W15" s="76">
         <v>5263.1469999999999</v>
       </c>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AD10" s="84">
-        <f>SUM(C10:F10)</f>
-        <v>15276319</v>
-      </c>
-      <c r="AE10" s="84">
-        <f>SUM(G10:J10)</f>
-        <v>17332683</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="93" t="s">
+      <c r="X15" s="76">
+        <v>5325.3109999999997</v>
+      </c>
+      <c r="Y15" s="76">
+        <v>6164.25</v>
+      </c>
+      <c r="Z15" s="76">
+        <f>+Z14-Z16</f>
+        <v>6009.5798744999984</v>
+      </c>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AD15" s="84">
+        <f>SUM(C15:F15)</f>
+        <v>15276.319</v>
+      </c>
+      <c r="AE15" s="84">
+        <f>SUM(G15:J15)</f>
+        <v>17332.683000000001</v>
+      </c>
+      <c r="AH15" s="137">
+        <f>SUM(S15:V15)</f>
+        <v>21038.464</v>
+      </c>
+      <c r="AI15" s="137">
+        <f>SUM(W15:Z15)</f>
+        <v>22762.287874499998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="76">
-        <f t="shared" ref="C11" si="0">C9-C10</f>
-        <v>2167990</v>
-      </c>
-      <c r="D11" s="76">
-        <f t="shared" ref="D11" si="1">D9-D10</f>
-        <v>2504579</v>
-      </c>
-      <c r="E11" s="76">
-        <f t="shared" ref="E11" si="2">E9-E10</f>
-        <v>2567886</v>
-      </c>
-      <c r="F11" s="76">
-        <f t="shared" ref="F11" si="3">F9-F10</f>
-        <v>2479282</v>
-      </c>
-      <c r="G11" s="76">
-        <f t="shared" ref="G11:J11" si="4">G9-G10</f>
-        <v>3294771</v>
-      </c>
-      <c r="H11" s="76">
-        <f t="shared" si="4"/>
-        <v>3323769</v>
-      </c>
-      <c r="I11" s="76">
-        <f t="shared" si="4"/>
-        <v>3276878</v>
-      </c>
-      <c r="J11" s="76">
-        <f t="shared" si="4"/>
-        <v>2469743</v>
-      </c>
-      <c r="K11" s="76">
-        <f>K9-K10</f>
-        <v>3583062</v>
-      </c>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76">
-        <f>+S9-S10</f>
-        <v>4392.9269999999997</v>
-      </c>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76">
-        <f>+V9-V10</f>
-        <v>4479.6360000000004</v>
-      </c>
-      <c r="W11" s="76">
-        <f>+W9-W10</f>
-        <v>5279.8530000000001</v>
-      </c>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
-    </row>
-    <row r="12" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="76">
-        <v>503830</v>
-      </c>
-      <c r="D12" s="76">
-        <v>434370</v>
-      </c>
-      <c r="E12" s="76">
-        <v>527597</v>
-      </c>
-      <c r="F12" s="76">
-        <v>762565</v>
-      </c>
-      <c r="G12" s="76">
-        <v>512512</v>
-      </c>
-      <c r="H12" s="76">
-        <v>603973</v>
-      </c>
-      <c r="I12" s="76">
-        <v>635948</v>
-      </c>
-      <c r="J12" s="76">
-        <v>792713</v>
-      </c>
-      <c r="K12" s="76">
-        <v>555978</v>
-      </c>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76">
-        <v>654.34</v>
-      </c>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76">
-        <v>976.20399999999995</v>
-      </c>
-      <c r="W12" s="76">
-        <v>688.37</v>
-      </c>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AD12" s="84">
-        <f>SUM(C12:F12)</f>
-        <v>2228362</v>
-      </c>
-      <c r="AE12" s="84">
-        <f>SUM(G12:J12)</f>
-        <v>2545146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="76">
-        <v>453817</v>
-      </c>
-      <c r="D13" s="76">
-        <v>435045</v>
-      </c>
-      <c r="E13" s="76">
-        <v>453802</v>
-      </c>
-      <c r="F13" s="76">
-        <v>486936</v>
-      </c>
-      <c r="G13" s="76">
-        <v>525207</v>
-      </c>
-      <c r="H13" s="76">
-        <v>537321</v>
-      </c>
-      <c r="I13" s="76">
-        <v>563887</v>
-      </c>
-      <c r="J13" s="76">
-        <v>647470</v>
-      </c>
-      <c r="K13" s="76">
-        <v>657530</v>
-      </c>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76">
-        <v>702.47299999999996</v>
-      </c>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76">
-        <v>776.505</v>
-      </c>
-      <c r="W13" s="76">
-        <v>822.82299999999998</v>
-      </c>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AD13" s="84">
-        <f>SUM(C13:F13)</f>
-        <v>1829600</v>
-      </c>
-      <c r="AE13" s="84">
-        <f>SUM(G13:J13)</f>
-        <v>2273885</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="93" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="76">
-        <v>252087</v>
-      </c>
-      <c r="D14" s="76">
-        <v>277236</v>
-      </c>
-      <c r="E14" s="76">
-        <v>271624</v>
-      </c>
-      <c r="F14" s="76">
-        <v>275539</v>
-      </c>
-      <c r="G14" s="76">
-        <v>297196</v>
-      </c>
-      <c r="H14" s="76">
-        <v>334845</v>
-      </c>
-      <c r="I14" s="76">
-        <v>321790</v>
-      </c>
-      <c r="J14" s="76">
-        <v>397790</v>
-      </c>
-      <c r="K14" s="76">
-        <v>397928</v>
-      </c>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76">
-        <v>404.02</v>
-      </c>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76">
-        <v>453.67399999999998</v>
-      </c>
-      <c r="W14" s="76">
-        <v>421.46199999999999</v>
-      </c>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AD14" s="84">
-        <f>SUM(C14:F14)</f>
-        <v>1076486</v>
-      </c>
-      <c r="AE14" s="84">
-        <f>SUM(G14:J14)</f>
-        <v>1351621</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="84">
-        <f t="shared" ref="C15:J15" si="5">SUM(C12:C14)</f>
-        <v>1209734</v>
-      </c>
-      <c r="D15" s="84">
-        <f t="shared" si="5"/>
-        <v>1146651</v>
-      </c>
-      <c r="E15" s="84">
-        <f t="shared" si="5"/>
-        <v>1253023</v>
-      </c>
-      <c r="F15" s="84">
-        <f t="shared" si="5"/>
-        <v>1525040</v>
-      </c>
-      <c r="G15" s="84">
-        <f t="shared" si="5"/>
-        <v>1334915</v>
-      </c>
-      <c r="H15" s="84">
-        <f t="shared" si="5"/>
-        <v>1476139</v>
-      </c>
-      <c r="I15" s="84">
-        <f t="shared" si="5"/>
-        <v>1521625</v>
-      </c>
-      <c r="J15" s="84">
-        <f t="shared" si="5"/>
-        <v>1837973</v>
-      </c>
-      <c r="K15" s="84">
-        <f>SUM(K12:K14)</f>
-        <v>1611436</v>
-      </c>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84">
-        <f>+S14+S13+S12</f>
-        <v>1760.8330000000001</v>
-      </c>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84">
-        <f>+V14+V13+V12</f>
-        <v>2206.3829999999998</v>
-      </c>
-      <c r="W15" s="84">
-        <f>+W14+W13+W12</f>
-        <v>1932.6549999999997</v>
-      </c>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AD15" s="84"/>
-      <c r="AE15" s="84"/>
-    </row>
-    <row r="16" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="84">
-        <f>C11-C15</f>
-        <v>958256</v>
-      </c>
-      <c r="D16" s="84">
-        <f t="shared" ref="D16:K16" si="6">D11-D15</f>
-        <v>1357928</v>
-      </c>
-      <c r="E16" s="84">
-        <f t="shared" si="6"/>
-        <v>1314863</v>
-      </c>
-      <c r="F16" s="84">
-        <f t="shared" si="6"/>
-        <v>954242</v>
-      </c>
-      <c r="G16" s="84">
-        <f t="shared" si="6"/>
-        <v>1959856</v>
-      </c>
-      <c r="H16" s="84">
-        <f t="shared" si="6"/>
-        <v>1847630</v>
-      </c>
-      <c r="I16" s="84">
-        <f t="shared" si="6"/>
-        <v>1755253</v>
-      </c>
-      <c r="J16" s="84">
-        <f t="shared" si="6"/>
-        <v>631770</v>
-      </c>
-      <c r="K16" s="84">
-        <f t="shared" si="6"/>
-        <v>1971626</v>
-      </c>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84">
-        <f>+S11-S15</f>
-        <v>2632.0939999999996</v>
-      </c>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84">
-        <f>+V11-V15</f>
-        <v>2273.2530000000006</v>
-      </c>
-      <c r="W16" s="84">
-        <f>+W11-W15</f>
-        <v>3347.1980000000003</v>
-      </c>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
+      <c r="C16" s="76">
+        <f t="shared" ref="C16" si="0">C14-C15</f>
+        <v>2167.9899999999998</v>
+      </c>
+      <c r="D16" s="76">
+        <f t="shared" ref="D16" si="1">D14-D15</f>
+        <v>2504.5790000000002</v>
+      </c>
+      <c r="E16" s="76">
+        <f t="shared" ref="E16" si="2">E14-E15</f>
+        <v>2567.8859999999995</v>
+      </c>
+      <c r="F16" s="76">
+        <f t="shared" ref="F16" si="3">F14-F15</f>
+        <v>2479.2820000000002</v>
+      </c>
+      <c r="G16" s="76">
+        <f>G14-G15</f>
+        <v>3294.7710000000002</v>
+      </c>
+      <c r="H16" s="76">
+        <f>H14-H15</f>
+        <v>3323.7690000000002</v>
+      </c>
+      <c r="I16" s="76">
+        <f t="shared" ref="G16:J16" si="4">I14-I15</f>
+        <v>3276.8779999999997</v>
+      </c>
+      <c r="J16" s="76">
+        <f>J14-J15</f>
+        <v>2469.7430000000004</v>
+      </c>
+      <c r="K16" s="76">
+        <f>K14-K15</f>
+        <v>3583.0619999999999</v>
+      </c>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76">
+        <f>+S14-S15</f>
+        <v>4393.3669999999984</v>
+      </c>
+      <c r="T16" s="76">
+        <f>+T14-T15</f>
+        <v>4385.1670000000013</v>
+      </c>
+      <c r="U16" s="76">
+        <f>+U14-U15</f>
+        <v>4704.8189999999995</v>
+      </c>
+      <c r="V16" s="76">
+        <f>+V14-V15</f>
+        <v>4479.1489999999994</v>
+      </c>
+      <c r="W16" s="76">
+        <f>+W14-W15</f>
+        <v>5279.6539999999995</v>
+      </c>
+      <c r="X16" s="76">
+        <f>+X14-X15</f>
+        <v>5753.8550000000014</v>
+      </c>
+      <c r="Y16" s="76">
+        <f>+Y14-Y15</f>
+        <v>5346.0570000000007</v>
+      </c>
+      <c r="Z16" s="76">
+        <f>+Z14*0.49</f>
+        <v>5773.910075499999</v>
+      </c>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76"/>
       <c r="AD16" s="84"/>
       <c r="AE16" s="84"/>
-    </row>
-    <row r="17" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
+      <c r="AH16" s="77">
+        <f>+AH14-AH15</f>
+        <v>17962.502</v>
+      </c>
+      <c r="AI16" s="77">
+        <f>+AI14-AI15</f>
+        <v>22153.476075500002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="84">
-        <v>-184083</v>
-      </c>
-      <c r="D17" s="84">
-        <v>-189151</v>
-      </c>
-      <c r="E17" s="84">
-        <v>-197079</v>
-      </c>
-      <c r="F17" s="84">
-        <v>-197186</v>
-      </c>
-      <c r="G17" s="84">
-        <v>-194440</v>
-      </c>
-      <c r="H17" s="84">
-        <v>-191322</v>
-      </c>
-      <c r="I17" s="84">
-        <v>-190429</v>
-      </c>
-      <c r="J17" s="84">
-        <v>-189429</v>
-      </c>
-      <c r="K17" s="84">
-        <v>-187579</v>
-      </c>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84">
-        <f>-173.314+155.359</f>
-        <v>-17.954999999999984</v>
-      </c>
-      <c r="T17" s="84"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84">
-        <f>-192.603+54.105</f>
-        <v>-138.49800000000002</v>
-      </c>
-      <c r="W17" s="84">
-        <f>-184.172+50.899</f>
-        <v>-133.273</v>
-      </c>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
+        <v>30</v>
+      </c>
+      <c r="C17" s="76">
+        <v>503.83</v>
+      </c>
+      <c r="D17" s="76">
+        <v>434.37</v>
+      </c>
+      <c r="E17" s="76">
+        <v>527.59699999999998</v>
+      </c>
+      <c r="F17" s="76">
+        <v>762.56500000000005</v>
+      </c>
+      <c r="G17" s="76">
+        <v>512.51199999999994</v>
+      </c>
+      <c r="H17" s="76">
+        <v>603.97299999999996</v>
+      </c>
+      <c r="I17" s="76">
+        <v>635.94799999999998</v>
+      </c>
+      <c r="J17" s="76">
+        <v>792.71299999999997</v>
+      </c>
+      <c r="K17" s="76">
+        <v>555.97799999999995</v>
+      </c>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76">
+        <v>654.34</v>
+      </c>
+      <c r="T17" s="76">
+        <v>644.08399999999995</v>
+      </c>
+      <c r="U17" s="76">
+        <v>642.92600000000004</v>
+      </c>
+      <c r="V17" s="76">
+        <v>976.20399999999995</v>
+      </c>
+      <c r="W17" s="76">
+        <v>688.37</v>
+      </c>
+      <c r="X17" s="76">
+        <v>713.26499999999999</v>
+      </c>
+      <c r="Y17" s="76">
+        <v>786.29499999999996</v>
+      </c>
+      <c r="Z17" s="76">
+        <f>+V17</f>
+        <v>976.20399999999995</v>
+      </c>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="76"/>
       <c r="AD17" s="84">
         <f>SUM(C17:F17)</f>
-        <v>-767499</v>
+        <v>2228.3620000000001</v>
       </c>
       <c r="AE17" s="84">
         <f>SUM(G17:J17)</f>
-        <v>-765620</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
+        <v>2545.1459999999997</v>
+      </c>
+      <c r="AH17" s="137">
+        <f>SUM(S17:V17)</f>
+        <v>2917.5540000000001</v>
+      </c>
+      <c r="AI17" s="137">
+        <f>SUM(W17:Z17)</f>
+        <v>3164.134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="84">
-        <v>21697</v>
-      </c>
-      <c r="D18" s="84">
-        <v>-133175</v>
-      </c>
-      <c r="E18" s="84">
-        <v>-256324</v>
-      </c>
-      <c r="F18" s="84">
-        <v>-250639</v>
-      </c>
-      <c r="G18" s="84">
-        <v>269086</v>
-      </c>
-      <c r="H18" s="84">
-        <v>-62519</v>
-      </c>
-      <c r="I18" s="84">
-        <v>96135</v>
-      </c>
-      <c r="J18" s="84">
-        <v>108512</v>
-      </c>
-      <c r="K18" s="84">
-        <v>195645</v>
-      </c>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="84"/>
+        <v>99</v>
+      </c>
+      <c r="C18" s="76">
+        <v>453.81700000000001</v>
+      </c>
+      <c r="D18" s="76">
+        <v>435.04500000000002</v>
+      </c>
+      <c r="E18" s="76">
+        <v>453.80200000000002</v>
+      </c>
+      <c r="F18" s="76">
+        <v>486.93599999999998</v>
+      </c>
+      <c r="G18" s="76">
+        <v>525.20699999999999</v>
+      </c>
+      <c r="H18" s="76">
+        <v>537.32100000000003</v>
+      </c>
+      <c r="I18" s="76">
+        <v>563.88699999999994</v>
+      </c>
+      <c r="J18" s="76">
+        <v>647.47</v>
+      </c>
+      <c r="K18" s="76">
+        <v>657.53</v>
+      </c>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="76">
+        <v>702.47299999999996</v>
+      </c>
+      <c r="T18" s="76">
+        <v>711.25400000000002</v>
+      </c>
+      <c r="U18" s="76">
+        <v>735.06299999999999</v>
+      </c>
+      <c r="V18" s="76">
+        <v>776.505</v>
+      </c>
+      <c r="W18" s="76">
+        <v>822.82299999999998</v>
+      </c>
+      <c r="X18" s="76">
+        <v>824.68299999999999</v>
+      </c>
+      <c r="Y18" s="76">
+        <v>853.58399999999995</v>
+      </c>
+      <c r="Z18" s="76">
+        <f>+V18</f>
+        <v>776.505</v>
+      </c>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76"/>
       <c r="AD18" s="84">
         <f>SUM(C18:F18)</f>
-        <v>-618441</v>
+        <v>1829.6000000000001</v>
       </c>
       <c r="AE18" s="84">
         <f>SUM(G18:J18)</f>
-        <v>411214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2273.8850000000002</v>
+      </c>
+      <c r="AH18" s="137">
+        <f>SUM(S18:V18)</f>
+        <v>2925.2950000000001</v>
+      </c>
+      <c r="AI18" s="137">
+        <f>SUM(W18:Z18)</f>
+        <v>3277.5949999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="84">
-        <f t="shared" ref="C19:K19" si="7">SUM(C15:C18)</f>
-        <v>2005604</v>
-      </c>
-      <c r="D19" s="84">
-        <f t="shared" si="7"/>
-        <v>2182253</v>
-      </c>
-      <c r="E19" s="84">
-        <f t="shared" si="7"/>
-        <v>2114483</v>
-      </c>
-      <c r="F19" s="84">
-        <f t="shared" si="7"/>
-        <v>2031457</v>
-      </c>
-      <c r="G19" s="84">
-        <f t="shared" si="7"/>
-        <v>3369417</v>
-      </c>
-      <c r="H19" s="84">
-        <f t="shared" si="7"/>
-        <v>3069928</v>
-      </c>
-      <c r="I19" s="84">
-        <f t="shared" si="7"/>
-        <v>3182584</v>
-      </c>
-      <c r="J19" s="84">
-        <f t="shared" si="7"/>
-        <v>2388826</v>
-      </c>
-      <c r="K19" s="84">
-        <f t="shared" si="7"/>
-        <v>3591128</v>
-      </c>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84">
-        <f>+S16+S17</f>
-        <v>2614.1389999999997</v>
-      </c>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84">
-        <f>+V16+V17</f>
-        <v>2134.7550000000006</v>
-      </c>
-      <c r="W19" s="84">
-        <f>+W16+W17</f>
-        <v>3213.9250000000002</v>
-      </c>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="84"/>
-      <c r="AA19" s="84"/>
-      <c r="AB19" s="84"/>
+        <v>100</v>
+      </c>
+      <c r="C19" s="76">
+        <v>252.08699999999999</v>
+      </c>
+      <c r="D19" s="76">
+        <v>277.23599999999999</v>
+      </c>
+      <c r="E19" s="76">
+        <v>271.62400000000002</v>
+      </c>
+      <c r="F19" s="76">
+        <v>275.53899999999999</v>
+      </c>
+      <c r="G19" s="76">
+        <v>297.19600000000003</v>
+      </c>
+      <c r="H19" s="76">
+        <v>334.84500000000003</v>
+      </c>
+      <c r="I19" s="76">
+        <v>321.79000000000002</v>
+      </c>
+      <c r="J19" s="76">
+        <v>397.79</v>
+      </c>
+      <c r="K19" s="76">
+        <v>397.928</v>
+      </c>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76">
+        <v>404.02</v>
+      </c>
+      <c r="T19" s="76">
+        <v>426.99200000000002</v>
+      </c>
+      <c r="U19" s="76">
+        <v>417.35300000000001</v>
+      </c>
+      <c r="V19" s="76">
+        <v>453.67399999999998</v>
+      </c>
+      <c r="W19" s="76">
+        <v>421.46199999999999</v>
+      </c>
+      <c r="X19" s="76">
+        <v>441.21300000000002</v>
+      </c>
+      <c r="Y19" s="76">
+        <v>457.93099999999998</v>
+      </c>
+      <c r="Z19" s="76">
+        <f>+V19</f>
+        <v>453.67399999999998</v>
+      </c>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="76"/>
       <c r="AD19" s="84">
         <f>SUM(C19:F19)</f>
-        <v>8333797</v>
+        <v>1076.4859999999999</v>
       </c>
       <c r="AE19" s="84">
         <f>SUM(G19:J19)</f>
-        <v>12010755</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1351.6210000000001</v>
+      </c>
+      <c r="AH19" s="137">
+        <f>SUM(S19:V19)</f>
+        <v>1702.039</v>
+      </c>
+      <c r="AI19" s="137">
+        <f>SUM(W19:Z19)</f>
+        <v>1774.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="93" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C20" s="84">
-        <v>-86803</v>
+        <f t="shared" ref="C20:J20" si="5">SUM(C17:C19)</f>
+        <v>1209.7339999999999</v>
       </c>
       <c r="D20" s="84">
-        <v>-315406</v>
+        <f>SUM(D17:D19)</f>
+        <v>1146.6509999999998</v>
       </c>
       <c r="E20" s="84">
-        <v>-71484</v>
+        <f t="shared" si="5"/>
+        <v>1253.0230000000001</v>
       </c>
       <c r="F20" s="84">
-        <v>35739</v>
+        <f>SUM(F17:F19)</f>
+        <v>1525.04</v>
       </c>
       <c r="G20" s="84">
-        <v>-327787</v>
+        <f>SUM(G17:G19)</f>
+        <v>1334.915</v>
       </c>
       <c r="H20" s="84">
-        <v>-240776</v>
+        <f>SUM(H17:H19)</f>
+        <v>1476.1389999999999</v>
       </c>
       <c r="I20" s="84">
-        <v>-211888</v>
+        <f>SUM(I17:I19)</f>
+        <v>1521.625</v>
       </c>
       <c r="J20" s="84">
-        <v>56576</v>
+        <f>SUM(J17:J19)</f>
+        <v>1837.973</v>
       </c>
       <c r="K20" s="84">
-        <v>-382245</v>
+        <f>SUM(K17:K19)</f>
+        <v>1611.4359999999997</v>
       </c>
       <c r="L20" s="84"/>
       <c r="M20" s="84"/>
@@ -6121,254 +6215,326 @@
       <c r="Q20" s="84"/>
       <c r="R20" s="84"/>
       <c r="S20" s="84">
-        <v>282.37</v>
-      </c>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
+        <f>+S19+S18+S17</f>
+        <v>1760.8330000000001</v>
+      </c>
+      <c r="T20" s="84">
+        <f t="shared" ref="T20:Z20" si="6">+T19+T18+T17</f>
+        <v>1782.33</v>
+      </c>
+      <c r="U20" s="84">
+        <f t="shared" si="6"/>
+        <v>1795.3420000000001</v>
+      </c>
       <c r="V20" s="84">
-        <v>265.661</v>
+        <f t="shared" si="6"/>
+        <v>2206.3829999999998</v>
       </c>
       <c r="W20" s="84">
-        <v>323.375</v>
-      </c>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="84"/>
+        <f t="shared" si="6"/>
+        <v>1932.6549999999997</v>
+      </c>
+      <c r="X20" s="84">
+        <f t="shared" si="6"/>
+        <v>1979.1610000000001</v>
+      </c>
+      <c r="Y20" s="84">
+        <f t="shared" si="6"/>
+        <v>2097.81</v>
+      </c>
+      <c r="Z20" s="84">
+        <f t="shared" si="6"/>
+        <v>2206.3829999999998</v>
+      </c>
       <c r="AA20" s="84"/>
       <c r="AB20" s="84"/>
-      <c r="AD20" s="84">
-        <f>SUM(C20:F20)</f>
-        <v>-437954</v>
-      </c>
-      <c r="AE20" s="84">
-        <f>SUM(G20:J20)</f>
-        <v>-723875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD20" s="84"/>
+      <c r="AE20" s="84"/>
+      <c r="AH20" s="77">
+        <f>+AH19+AH18+AH17</f>
+        <v>7544.8879999999999</v>
+      </c>
+      <c r="AI20" s="77">
+        <f>+AI19+AI18+AI17</f>
+        <v>8216.009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="85">
-        <f>C19+C20</f>
-        <v>1918801</v>
-      </c>
-      <c r="D21" s="85">
-        <f t="shared" ref="D21:F21" si="8">D19+D20</f>
-        <v>1866847</v>
-      </c>
-      <c r="E21" s="85">
+        <v>115</v>
+      </c>
+      <c r="C21" s="84">
+        <f>C16-C20</f>
+        <v>958.25599999999986</v>
+      </c>
+      <c r="D21" s="84">
+        <f t="shared" ref="D21:K21" si="7">D16-D20</f>
+        <v>1357.9280000000003</v>
+      </c>
+      <c r="E21" s="84">
+        <f t="shared" si="7"/>
+        <v>1314.8629999999994</v>
+      </c>
+      <c r="F21" s="84">
+        <f t="shared" si="7"/>
+        <v>954.24200000000019</v>
+      </c>
+      <c r="G21" s="84">
+        <f>G16-G20</f>
+        <v>1959.8560000000002</v>
+      </c>
+      <c r="H21" s="84">
+        <f t="shared" si="7"/>
+        <v>1847.6300000000003</v>
+      </c>
+      <c r="I21" s="84">
+        <f t="shared" si="7"/>
+        <v>1755.2529999999997</v>
+      </c>
+      <c r="J21" s="84">
+        <f>J16-J20</f>
+        <v>631.77000000000044</v>
+      </c>
+      <c r="K21" s="84">
+        <f>K16-K20</f>
+        <v>1971.6260000000002</v>
+      </c>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84">
+        <f>+S16-S20</f>
+        <v>2632.5339999999983</v>
+      </c>
+      <c r="T21" s="84">
+        <f t="shared" ref="T21:Z21" si="8">+T16-T20</f>
+        <v>2602.8370000000014</v>
+      </c>
+      <c r="U21" s="84">
         <f t="shared" si="8"/>
-        <v>2042999</v>
-      </c>
-      <c r="F21" s="85">
+        <v>2909.4769999999994</v>
+      </c>
+      <c r="V21" s="84">
         <f t="shared" si="8"/>
-        <v>2067196</v>
-      </c>
-      <c r="G21" s="85">
-        <f t="shared" ref="G21:K21" si="9">G19+G20</f>
-        <v>3041630</v>
-      </c>
-      <c r="H21" s="85">
-        <f t="shared" si="9"/>
-        <v>2829152</v>
-      </c>
-      <c r="I21" s="85">
-        <f t="shared" si="9"/>
-        <v>2970696</v>
-      </c>
-      <c r="J21" s="85">
-        <f t="shared" si="9"/>
-        <v>2445402</v>
-      </c>
-      <c r="K21" s="85">
-        <f t="shared" si="9"/>
-        <v>3208883</v>
-      </c>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="84">
-        <f>+S19-S20</f>
-        <v>2331.7689999999998</v>
-      </c>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="84">
-        <f>+V19-V20</f>
-        <v>1869.0940000000005</v>
+        <v>2272.7659999999996</v>
       </c>
       <c r="W21" s="84">
-        <f>+W19-W20</f>
-        <v>2890.55</v>
-      </c>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="85"/>
-      <c r="AD21" s="85">
-        <f>SUM(C21:F21)</f>
-        <v>7895843</v>
-      </c>
-      <c r="AE21" s="85">
-        <f>SUM(G21:J21)</f>
-        <v>11286880</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>3346.9989999999998</v>
+      </c>
+      <c r="X21" s="84">
+        <f t="shared" si="8"/>
+        <v>3774.6940000000013</v>
+      </c>
+      <c r="Y21" s="84">
+        <f t="shared" si="8"/>
+        <v>3248.2470000000008</v>
+      </c>
+      <c r="Z21" s="84">
+        <f>+Z16-Z20</f>
+        <v>3567.5270754999992</v>
+      </c>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="84"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AH21" s="77">
+        <f>+AH16-AH20</f>
+        <v>10417.614000000001</v>
+      </c>
+      <c r="AI21" s="77">
+        <f>+AI16-AI20</f>
+        <v>13937.467075500002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93"/>
       <c r="B22" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="85">
-        <v>1.61</v>
-      </c>
-      <c r="D22" s="85">
-        <v>1.63</v>
-      </c>
-      <c r="E22" s="85">
-        <v>1.79</v>
-      </c>
-      <c r="F22" s="85">
-        <v>1.23</v>
-      </c>
-      <c r="G22" s="85">
-        <v>3.85</v>
-      </c>
-      <c r="H22" s="85">
-        <v>3.05</v>
-      </c>
-      <c r="I22" s="85">
-        <v>3.27</v>
-      </c>
-      <c r="J22" s="85">
-        <v>1.37</v>
-      </c>
-      <c r="K22" s="85">
-        <v>3.6</v>
-      </c>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="85"/>
-      <c r="AD22" s="85">
-        <v>6.26</v>
-      </c>
-      <c r="AE22" s="85">
-        <v>11.55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="86">
-        <v>1.57</v>
-      </c>
-      <c r="D23" s="86">
-        <v>1.59</v>
-      </c>
-      <c r="E23" s="86">
-        <v>1.74</v>
-      </c>
-      <c r="F23" s="86">
-        <v>1.19</v>
-      </c>
-      <c r="G23" s="86">
-        <v>3.75</v>
-      </c>
-      <c r="H23" s="86">
-        <v>2.97</v>
-      </c>
-      <c r="I23" s="86">
-        <v>3.19</v>
-      </c>
-      <c r="J23" s="86">
-        <v>1.33</v>
-      </c>
-      <c r="K23" s="86">
-        <v>3.53</v>
-      </c>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="85">
-        <v>441.654</v>
-      </c>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="85">
-        <v>437.786</v>
-      </c>
-      <c r="W23" s="85">
-        <v>436.96199999999999</v>
-      </c>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="86"/>
-      <c r="AB23" s="86"/>
-      <c r="AD23" s="86">
-        <v>6.08</v>
-      </c>
-      <c r="AE23" s="86">
-        <v>11.24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="93"/>
+        <v>37</v>
+      </c>
+      <c r="C22" s="84">
+        <v>-184.083</v>
+      </c>
+      <c r="D22" s="84">
+        <v>-189.15100000000001</v>
+      </c>
+      <c r="E22" s="84">
+        <v>-197.07900000000001</v>
+      </c>
+      <c r="F22" s="84">
+        <v>-197.18600000000001</v>
+      </c>
+      <c r="G22" s="84">
+        <v>-194.44</v>
+      </c>
+      <c r="H22" s="84">
+        <v>-191.322</v>
+      </c>
+      <c r="I22" s="84">
+        <v>-190.429</v>
+      </c>
+      <c r="J22" s="84">
+        <v>-189.429</v>
+      </c>
+      <c r="K22" s="84">
+        <v>-187.57900000000001</v>
+      </c>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84">
+        <f>-173.314+155.359</f>
+        <v>-17.954999999999984</v>
+      </c>
+      <c r="T22" s="84">
+        <f>-167.986+79.005</f>
+        <v>-88.980999999999995</v>
+      </c>
+      <c r="U22" s="84">
+        <f>-184.83-21.693</f>
+        <v>-206.52300000000002</v>
+      </c>
+      <c r="V22" s="84">
+        <f>-192.603+54.105</f>
+        <v>-138.49800000000002</v>
+      </c>
+      <c r="W22" s="84">
+        <f>-184.172+50.899</f>
+        <v>-133.273</v>
+      </c>
+      <c r="X22" s="84">
+        <f>-182.649+39.63</f>
+        <v>-143.01900000000001</v>
+      </c>
+      <c r="Y22" s="84">
+        <f>-175.294+36.457</f>
+        <v>-138.83700000000002</v>
+      </c>
+      <c r="Z22" s="84">
+        <f>+Y22</f>
+        <v>-138.83700000000002</v>
+      </c>
+      <c r="AA22" s="84"/>
+      <c r="AB22" s="84"/>
+      <c r="AD22" s="84">
+        <f>SUM(C22:F22)</f>
+        <v>-767.49900000000014</v>
+      </c>
+      <c r="AE22" s="84">
+        <f>SUM(G22:J22)</f>
+        <v>-765.62</v>
+      </c>
+      <c r="AH22" s="137">
+        <f>SUM(S22:V22)</f>
+        <v>-451.95699999999999</v>
+      </c>
+      <c r="AI22" s="137">
+        <f>SUM(W22:Z22)</f>
+        <v>-553.96600000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="93"/>
+      <c r="B23" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="84">
+        <v>21.696999999999999</v>
+      </c>
+      <c r="D23" s="84">
+        <v>-133.17500000000001</v>
+      </c>
+      <c r="E23" s="84">
+        <v>-256.32400000000001</v>
+      </c>
+      <c r="F23" s="84">
+        <v>-250.63900000000001</v>
+      </c>
+      <c r="G23" s="84">
+        <v>269.08600000000001</v>
+      </c>
+      <c r="H23" s="84">
+        <v>-62.518999999999998</v>
+      </c>
+      <c r="I23" s="84">
+        <v>96.135000000000005</v>
+      </c>
+      <c r="J23" s="84">
+        <v>108.512</v>
+      </c>
+      <c r="K23" s="84">
+        <v>195.64500000000001</v>
+      </c>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="84"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="84"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="84"/>
+      <c r="AB23" s="84"/>
+      <c r="AD23" s="84">
+        <f>SUM(C23:F23)</f>
+        <v>-618.44100000000003</v>
+      </c>
+      <c r="AE23" s="84">
+        <f>SUM(G23:J23)</f>
+        <v>411.214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="93" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C24" s="84">
-        <v>439352</v>
+        <f t="shared" ref="C24:K24" si="9">SUM(C20:C23)</f>
+        <v>2005.6039999999996</v>
       </c>
       <c r="D24" s="84">
-        <v>440569</v>
+        <f>SUM(D20:D23)</f>
+        <v>2182.2530000000002</v>
       </c>
       <c r="E24" s="84">
-        <v>441526</v>
+        <f t="shared" si="9"/>
+        <v>2114.4829999999993</v>
       </c>
       <c r="F24" s="84">
-        <v>442220</v>
+        <f t="shared" si="9"/>
+        <v>2031.4569999999999</v>
       </c>
       <c r="G24" s="84">
-        <v>443224</v>
+        <f t="shared" si="9"/>
+        <v>3369.4170000000004</v>
       </c>
       <c r="H24" s="84">
-        <v>443159</v>
+        <f t="shared" si="9"/>
+        <v>3069.9280000000003</v>
       </c>
       <c r="I24" s="84">
-        <v>442778</v>
+        <f t="shared" si="9"/>
+        <v>3182.5839999999998</v>
       </c>
       <c r="J24" s="84">
-        <v>443462</v>
+        <f t="shared" si="9"/>
+        <v>2388.8260000000005</v>
       </c>
       <c r="K24" s="84">
-        <v>444146</v>
+        <f>SUM(K20:K23)</f>
+        <v>3591.1279999999997</v>
       </c>
       <c r="L24" s="84"/>
       <c r="M24" s="84"/>
@@ -6377,54 +6543,87 @@
       <c r="P24" s="84"/>
       <c r="Q24" s="84"/>
       <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="84"/>
-      <c r="Y24" s="84"/>
-      <c r="Z24" s="84"/>
+      <c r="S24" s="84">
+        <f>+S21+S22</f>
+        <v>2614.5789999999984</v>
+      </c>
+      <c r="T24" s="84">
+        <f t="shared" ref="T24:Z24" si="10">+T21+T22</f>
+        <v>2513.8560000000016</v>
+      </c>
+      <c r="U24" s="84">
+        <f t="shared" si="10"/>
+        <v>2702.9539999999993</v>
+      </c>
+      <c r="V24" s="84">
+        <f t="shared" si="10"/>
+        <v>2134.2679999999996</v>
+      </c>
+      <c r="W24" s="84">
+        <f t="shared" si="10"/>
+        <v>3213.7259999999997</v>
+      </c>
+      <c r="X24" s="84">
+        <f t="shared" si="10"/>
+        <v>3631.6750000000011</v>
+      </c>
+      <c r="Y24" s="84">
+        <f t="shared" si="10"/>
+        <v>3109.4100000000008</v>
+      </c>
+      <c r="Z24" s="84">
+        <f>+Z21+Z22</f>
+        <v>3428.6900754999992</v>
+      </c>
       <c r="AA24" s="84"/>
       <c r="AB24" s="84"/>
-      <c r="AD24" s="98">
-        <v>440922</v>
-      </c>
-      <c r="AE24" s="98">
-        <v>443155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="93"/>
+      <c r="AD24" s="84">
+        <f>SUM(C24:F24)</f>
+        <v>8333.7969999999987</v>
+      </c>
+      <c r="AE24" s="84">
+        <f>SUM(G24:J24)</f>
+        <v>12010.755000000001</v>
+      </c>
+      <c r="AH24" s="77">
+        <f>+AH21+AH22</f>
+        <v>9965.6570000000011</v>
+      </c>
+      <c r="AI24" s="77">
+        <f>+AI21+AI22</f>
+        <v>13383.501075500002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="93" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C25" s="84">
-        <v>452494</v>
+        <v>-86.802999999999997</v>
       </c>
       <c r="D25" s="84">
-        <v>453945</v>
+        <v>-315.40600000000001</v>
       </c>
       <c r="E25" s="84">
-        <v>455088</v>
+        <v>-71.483999999999995</v>
       </c>
       <c r="F25" s="84">
-        <v>455283</v>
+        <v>35.738999999999997</v>
       </c>
       <c r="G25" s="84">
-        <v>455641</v>
+        <v>-327.78699999999998</v>
       </c>
       <c r="H25" s="84">
-        <v>455129</v>
+        <v>-240.77600000000001</v>
       </c>
       <c r="I25" s="84">
-        <v>454925</v>
+        <v>-211.88800000000001</v>
       </c>
       <c r="J25" s="84">
-        <v>455795</v>
+        <v>56.576000000000001</v>
       </c>
       <c r="K25" s="84">
-        <v>452984</v>
+        <v>-382.245</v>
       </c>
       <c r="L25" s="84"/>
       <c r="M25" s="84"/>
@@ -6433,275 +6632,525 @@
       <c r="P25" s="84"/>
       <c r="Q25" s="84"/>
       <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="84"/>
+      <c r="S25" s="84">
+        <v>282.37</v>
+      </c>
+      <c r="T25" s="84">
+        <v>366.55</v>
+      </c>
+      <c r="U25" s="84">
+        <v>339.44499999999999</v>
+      </c>
+      <c r="V25" s="84">
+        <v>265.661</v>
+      </c>
+      <c r="W25" s="84">
+        <v>323.375</v>
+      </c>
+      <c r="X25" s="84">
+        <v>506.262</v>
+      </c>
+      <c r="Y25" s="84">
+        <v>562.49400000000003</v>
+      </c>
+      <c r="Z25" s="84">
+        <f>+Z24*0.15</f>
+        <v>514.30351132499982</v>
+      </c>
       <c r="AA25" s="84"/>
       <c r="AB25" s="84"/>
-      <c r="AD25" s="98">
+      <c r="AD25" s="84">
+        <f>SUM(C25:F25)</f>
+        <v>-437.95400000000001</v>
+      </c>
+      <c r="AE25" s="84">
+        <f>SUM(G25:J25)</f>
+        <v>-723.875</v>
+      </c>
+      <c r="AH25" s="137">
+        <f>SUM(S25:V25)</f>
+        <v>1254.0260000000001</v>
+      </c>
+      <c r="AI25" s="137">
+        <f>SUM(W25:Z25)</f>
+        <v>1906.4345113249997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="85">
+        <f>C24+C25</f>
+        <v>1918.8009999999995</v>
+      </c>
+      <c r="D26" s="85">
+        <f t="shared" ref="D26:F26" si="11">D24+D25</f>
+        <v>1866.8470000000002</v>
+      </c>
+      <c r="E26" s="85">
+        <f t="shared" si="11"/>
+        <v>2042.9989999999993</v>
+      </c>
+      <c r="F26" s="85">
+        <f t="shared" si="11"/>
+        <v>2067.1959999999999</v>
+      </c>
+      <c r="G26" s="85">
+        <f t="shared" ref="G26:K26" si="12">G24+G25</f>
+        <v>3041.6300000000006</v>
+      </c>
+      <c r="H26" s="85">
+        <f t="shared" si="12"/>
+        <v>2829.1520000000005</v>
+      </c>
+      <c r="I26" s="85">
+        <f t="shared" si="12"/>
+        <v>2970.6959999999999</v>
+      </c>
+      <c r="J26" s="85">
+        <f t="shared" si="12"/>
+        <v>2445.4020000000005</v>
+      </c>
+      <c r="K26" s="85">
+        <f t="shared" si="12"/>
+        <v>3208.8829999999998</v>
+      </c>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="84">
+        <f>+S24-S25</f>
+        <v>2332.2089999999985</v>
+      </c>
+      <c r="T26" s="84">
+        <f t="shared" ref="T26:Z26" si="13">+T24-T25</f>
+        <v>2147.3060000000014</v>
+      </c>
+      <c r="U26" s="84">
+        <f t="shared" si="13"/>
+        <v>2363.5089999999991</v>
+      </c>
+      <c r="V26" s="84">
+        <f t="shared" si="13"/>
+        <v>1868.6069999999995</v>
+      </c>
+      <c r="W26" s="84">
+        <f t="shared" si="13"/>
+        <v>2890.3509999999997</v>
+      </c>
+      <c r="X26" s="84">
+        <f t="shared" si="13"/>
+        <v>3125.4130000000009</v>
+      </c>
+      <c r="Y26" s="84">
+        <f t="shared" si="13"/>
+        <v>2546.9160000000006</v>
+      </c>
+      <c r="Z26" s="84">
+        <f>+Z24-Z25</f>
+        <v>2914.3865641749994</v>
+      </c>
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="85"/>
+      <c r="AD26" s="85">
+        <f>SUM(C26:F26)</f>
+        <v>7895.8429999999989</v>
+      </c>
+      <c r="AE26" s="85">
+        <f>SUM(G26:J26)</f>
+        <v>11286.880000000001</v>
+      </c>
+      <c r="AH26" s="77">
+        <f>+AH24-AH25</f>
+        <v>8711.6310000000012</v>
+      </c>
+      <c r="AI26" s="77">
+        <f>+AI24-AI25</f>
+        <v>11477.066564175002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="93"/>
+      <c r="B27" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="86">
+        <v>1.61</v>
+      </c>
+      <c r="D27" s="86">
+        <v>1.63</v>
+      </c>
+      <c r="E27" s="86">
+        <v>1.79</v>
+      </c>
+      <c r="F27" s="86">
+        <v>1.23</v>
+      </c>
+      <c r="G27" s="86">
+        <v>3.85</v>
+      </c>
+      <c r="H27" s="86">
+        <v>3.05</v>
+      </c>
+      <c r="I27" s="86">
+        <v>3.27</v>
+      </c>
+      <c r="J27" s="86">
+        <v>1.37</v>
+      </c>
+      <c r="K27" s="86">
+        <v>3.6</v>
+      </c>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="86">
+        <f t="shared" ref="S27:X27" si="14">+S26/S28</f>
+        <v>5.2806246518768054</v>
+      </c>
+      <c r="T27" s="86">
+        <f t="shared" si="14"/>
+        <v>4.8831374974700941</v>
+      </c>
+      <c r="U27" s="86">
+        <f t="shared" si="14"/>
+        <v>5.3973961972879509</v>
+      </c>
+      <c r="V27" s="86">
+        <f t="shared" si="14"/>
+        <v>4.2683114581096691</v>
+      </c>
+      <c r="W27" s="86">
+        <f t="shared" si="14"/>
+        <v>6.6146507018916969</v>
+      </c>
+      <c r="X27" s="86">
+        <f t="shared" si="14"/>
+        <v>7.186790470080461</v>
+      </c>
+      <c r="Y27" s="86">
+        <f>+Y26/Y28</f>
+        <v>5.8679427424724526</v>
+      </c>
+      <c r="Z27" s="86">
+        <f>+Z26/Z28</f>
+        <v>6.7145730318588868</v>
+      </c>
+      <c r="AA27" s="85"/>
+      <c r="AB27" s="85"/>
+      <c r="AD27" s="86">
+        <v>6.26</v>
+      </c>
+      <c r="AE27" s="86">
+        <v>11.55</v>
+      </c>
+      <c r="AH27" s="138">
+        <f>+AH26/AH28</f>
+        <v>19.832098422550633</v>
+      </c>
+      <c r="AI27" s="138">
+        <f>+AI26/AI28</f>
+        <v>26.385228689258092</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="72"/>
+      <c r="B28" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="86">
+        <v>1.57</v>
+      </c>
+      <c r="D28" s="86">
+        <v>1.59</v>
+      </c>
+      <c r="E28" s="86">
+        <v>1.74</v>
+      </c>
+      <c r="F28" s="86">
+        <v>1.19</v>
+      </c>
+      <c r="G28" s="86">
+        <v>3.75</v>
+      </c>
+      <c r="H28" s="86">
+        <v>2.97</v>
+      </c>
+      <c r="I28" s="86">
+        <v>3.19</v>
+      </c>
+      <c r="J28" s="86">
+        <v>1.33</v>
+      </c>
+      <c r="K28" s="86">
+        <v>3.53</v>
+      </c>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="85">
+        <v>441.654</v>
+      </c>
+      <c r="T28" s="85">
+        <v>439.73899999999998</v>
+      </c>
+      <c r="U28" s="85">
+        <v>437.89800000000002</v>
+      </c>
+      <c r="V28" s="85">
+        <v>437.786</v>
+      </c>
+      <c r="W28" s="85">
+        <v>436.96199999999999</v>
+      </c>
+      <c r="X28" s="85">
+        <v>434.88299999999998</v>
+      </c>
+      <c r="Y28" s="85">
+        <v>434.03899999999999</v>
+      </c>
+      <c r="Z28" s="85">
+        <f>+Y28</f>
+        <v>434.03899999999999</v>
+      </c>
+      <c r="AA28" s="86"/>
+      <c r="AB28" s="86"/>
+      <c r="AD28" s="86">
+        <v>6.08</v>
+      </c>
+      <c r="AE28" s="86">
+        <v>11.24</v>
+      </c>
+      <c r="AH28" s="77">
+        <f>AVERAGE(S28:V28)</f>
+        <v>439.26925000000006</v>
+      </c>
+      <c r="AI28" s="77">
+        <f>AVERAGE(W28:Z28)</f>
+        <v>434.98075</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="93"/>
+      <c r="B29" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="84">
+        <v>439.35199999999998</v>
+      </c>
+      <c r="D29" s="84">
+        <v>440.56900000000002</v>
+      </c>
+      <c r="E29" s="84">
+        <v>441.52600000000001</v>
+      </c>
+      <c r="F29" s="84">
+        <v>442.22</v>
+      </c>
+      <c r="G29" s="84">
+        <v>443.22399999999999</v>
+      </c>
+      <c r="H29" s="84">
+        <v>443.15899999999999</v>
+      </c>
+      <c r="I29" s="84">
+        <v>442.77800000000002</v>
+      </c>
+      <c r="J29" s="84">
+        <v>443.46199999999999</v>
+      </c>
+      <c r="K29" s="84">
+        <v>444.14600000000002</v>
+      </c>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="84"/>
+      <c r="W29" s="84"/>
+      <c r="X29" s="84"/>
+      <c r="Y29" s="84"/>
+      <c r="Z29" s="84"/>
+      <c r="AA29" s="84"/>
+      <c r="AB29" s="84"/>
+      <c r="AD29" s="98">
+        <v>440922</v>
+      </c>
+      <c r="AE29" s="98">
+        <v>443155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="93"/>
+      <c r="B30" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="84">
+        <v>452.49400000000003</v>
+      </c>
+      <c r="D30" s="84">
+        <v>453.94499999999999</v>
+      </c>
+      <c r="E30" s="84">
+        <v>455.08800000000002</v>
+      </c>
+      <c r="F30" s="84">
+        <v>455.28300000000002</v>
+      </c>
+      <c r="G30" s="84">
+        <v>455.64100000000002</v>
+      </c>
+      <c r="H30" s="84">
+        <v>455.12900000000002</v>
+      </c>
+      <c r="I30" s="84">
+        <v>454.92500000000001</v>
+      </c>
+      <c r="J30" s="84">
+        <v>455.79500000000002</v>
+      </c>
+      <c r="K30" s="84">
+        <v>452.98399999999998</v>
+      </c>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="84"/>
+      <c r="V30" s="84"/>
+      <c r="W30" s="84"/>
+      <c r="X30" s="84"/>
+      <c r="Y30" s="84"/>
+      <c r="Z30" s="84"/>
+      <c r="AA30" s="84"/>
+      <c r="AB30" s="84"/>
+      <c r="AD30" s="98">
         <v>454208</v>
       </c>
-      <c r="AE25" s="98">
+      <c r="AE30" s="98">
         <v>455372</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
-      <c r="B27" s="82" t="s">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="78"/>
+      <c r="B32" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122">
-        <f t="shared" ref="G27:J27" si="10">G9/C9-1</f>
-        <v>0.24196701938436016</v>
-      </c>
-      <c r="H27" s="122">
-        <f t="shared" si="10"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122">
+        <f t="shared" ref="G32:J32" si="15">G14/C14-1</f>
+        <v>0.24196701938436038</v>
+      </c>
+      <c r="H32" s="122">
+        <f t="shared" si="15"/>
         <v>0.1941176776747211</v>
       </c>
-      <c r="I27" s="122">
-        <f t="shared" si="10"/>
+      <c r="I32" s="122">
+        <f t="shared" si="15"/>
         <v>0.16281682761162575</v>
       </c>
-      <c r="J27" s="122">
-        <f t="shared" si="10"/>
+      <c r="J32" s="122">
+        <f t="shared" si="15"/>
         <v>0.16026567768971423</v>
       </c>
-      <c r="K27" s="122">
-        <f>K9/G9-1</f>
+      <c r="K32" s="122">
+        <f>K14/G14-1</f>
         <v>9.834667963651289E-2</v>
       </c>
-      <c r="W27" s="122">
-        <f>+W9/S9-1</f>
-        <v>0.12518676627534675</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B28" s="71" t="s">
+      <c r="W32" s="122">
+        <f>+W14/S14-1</f>
+        <v>0.12511269481475806</v>
+      </c>
+      <c r="X32" s="122">
+        <f t="shared" ref="X32:Z32" si="16">+X14/T14-1</f>
+        <v>0.15899222851858541</v>
+      </c>
+      <c r="Y32" s="122">
+        <f t="shared" si="16"/>
+        <v>0.17156793442000251</v>
+      </c>
+      <c r="Z32" s="122">
+        <f t="shared" si="16"/>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B33" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="122">
+      <c r="K33" s="122">
         <f>K3/G3-1</f>
         <v>6.7434345185634736E-2</v>
       </c>
-      <c r="L28" s="122">
-        <f t="shared" ref="L28" si="11">L3/H3-1</f>
+      <c r="L33" s="122">
+        <f t="shared" ref="L33" si="17">L3/H3-1</f>
         <v>5.000478057175628E-2</v>
       </c>
-      <c r="M28" s="122"/>
-      <c r="N28" s="122"/>
-      <c r="O28" s="122"/>
-      <c r="P28" s="122"/>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="122"/>
-      <c r="T28" s="122"/>
-      <c r="U28" s="122"/>
-      <c r="V28" s="122"/>
-      <c r="W28" s="122"/>
-      <c r="X28" s="122"/>
-      <c r="Y28" s="122"/>
-      <c r="Z28" s="122"/>
-      <c r="AA28" s="122"/>
-      <c r="AB28" s="122"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B30" s="71" t="s">
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="122"/>
+      <c r="T33" s="122"/>
+      <c r="U33" s="122"/>
+      <c r="V33" s="122"/>
+      <c r="W33" s="122"/>
+      <c r="X33" s="122"/>
+      <c r="Y33" s="122"/>
+      <c r="Z33" s="122"/>
+      <c r="AA33" s="122"/>
+      <c r="AB33" s="122"/>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B35" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="W30" s="84">
-        <f>+W31-W42</f>
+      <c r="W35" s="84">
+        <f>+W36-W47</f>
         <v>-6645.9279999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="84">
-        <f>7199.848+1171.142</f>
-        <v>8370.99</v>
-      </c>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="84"/>
-      <c r="AA31" s="84"/>
-      <c r="AB31" s="84"/>
-      <c r="AD31" s="84"/>
-      <c r="AE31" s="84"/>
-    </row>
-    <row r="32" spans="1:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="84"/>
-      <c r="U32" s="84"/>
-      <c r="V32" s="84"/>
-      <c r="W32" s="84">
-        <v>3326.6419999999998</v>
-      </c>
-      <c r="X32" s="84"/>
-      <c r="Y32" s="84"/>
-      <c r="Z32" s="84"/>
-      <c r="AA32" s="84"/>
-      <c r="AB32" s="84"/>
-      <c r="AD32" s="84"/>
-      <c r="AE32" s="84"/>
-    </row>
-    <row r="33" spans="2:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="84"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="84">
-        <v>32040.839</v>
-      </c>
-      <c r="X33" s="84"/>
-      <c r="Y33" s="84"/>
-      <c r="Z33" s="84"/>
-      <c r="AA33" s="84"/>
-      <c r="AB33" s="84"/>
-      <c r="AD33" s="84"/>
-      <c r="AE33" s="84"/>
-    </row>
-    <row r="34" spans="2:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="84"/>
-      <c r="V34" s="84"/>
-      <c r="W34" s="84">
-        <v>1644.346</v>
-      </c>
-      <c r="X34" s="84"/>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="84"/>
-      <c r="AA34" s="84"/>
-      <c r="AB34" s="84"/>
-      <c r="AD34" s="84"/>
-      <c r="AE34" s="84"/>
-    </row>
-    <row r="35" spans="2:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="84"/>
-      <c r="R35" s="84"/>
-      <c r="S35" s="84"/>
-      <c r="T35" s="84"/>
-      <c r="U35" s="84"/>
-      <c r="V35" s="84"/>
-      <c r="W35" s="84">
-        <v>6704.8270000000002</v>
-      </c>
-      <c r="X35" s="84"/>
-      <c r="Y35" s="84"/>
-      <c r="Z35" s="84"/>
-      <c r="AA35" s="84"/>
-      <c r="AB35" s="84"/>
-      <c r="AD35" s="84"/>
-      <c r="AE35" s="84"/>
+      <c r="X35" s="84">
+        <f>+X36-X47</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="84">
+        <f>+Y36-Y47</f>
+        <v>-5138.6280000000006</v>
+      </c>
     </row>
     <row r="36" spans="2:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="77" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="C36" s="84"/>
       <c r="D36" s="84"/>
@@ -6724,16 +7173,56 @@
       <c r="U36" s="84"/>
       <c r="V36" s="84"/>
       <c r="W36" s="84">
-        <f>SUM(W31:W35)</f>
-        <v>52087.643999999993</v>
+        <f>7199.848+1171.142</f>
+        <v>8370.99</v>
       </c>
       <c r="X36" s="84"/>
-      <c r="Y36" s="84"/>
+      <c r="Y36" s="84">
+        <f>9287.287+37.105</f>
+        <v>9324.3919999999998</v>
+      </c>
       <c r="Z36" s="84"/>
       <c r="AA36" s="84"/>
       <c r="AB36" s="84"/>
       <c r="AD36" s="84"/>
       <c r="AE36" s="84"/>
+    </row>
+    <row r="37" spans="2:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="84"/>
+      <c r="R37" s="84"/>
+      <c r="S37" s="84"/>
+      <c r="T37" s="84"/>
+      <c r="U37" s="84"/>
+      <c r="V37" s="84"/>
+      <c r="W37" s="84">
+        <v>3326.6419999999998</v>
+      </c>
+      <c r="X37" s="84"/>
+      <c r="Y37" s="84">
+        <v>3638.5430000000001</v>
+      </c>
+      <c r="Z37" s="84"/>
+      <c r="AA37" s="84"/>
+      <c r="AB37" s="84"/>
+      <c r="AD37" s="84"/>
+      <c r="AE37" s="84"/>
     </row>
     <row r="38" spans="2:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="77" t="s">
@@ -6760,11 +7249,12 @@
       <c r="U38" s="84"/>
       <c r="V38" s="84"/>
       <c r="W38" s="84">
-        <f>4128.905+1696.662</f>
-        <v>5825.567</v>
+        <v>32040.839</v>
       </c>
       <c r="X38" s="84"/>
-      <c r="Y38" s="84"/>
+      <c r="Y38" s="84">
+        <v>32639.879000000001</v>
+      </c>
       <c r="Z38" s="84"/>
       <c r="AA38" s="84"/>
       <c r="AB38" s="84"/>
@@ -6773,7 +7263,7 @@
     </row>
     <row r="39" spans="2:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="77" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="84"/>
       <c r="D39" s="84"/>
@@ -6796,10 +7286,12 @@
       <c r="U39" s="84"/>
       <c r="V39" s="84"/>
       <c r="W39" s="84">
-        <v>614.48900000000003</v>
+        <v>1644.346</v>
       </c>
       <c r="X39" s="84"/>
-      <c r="Y39" s="84"/>
+      <c r="Y39" s="84">
+        <v>1837.8889999999999</v>
+      </c>
       <c r="Z39" s="84"/>
       <c r="AA39" s="84"/>
       <c r="AB39" s="84"/>
@@ -6808,7 +7300,7 @@
     </row>
     <row r="40" spans="2:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="77" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C40" s="84"/>
       <c r="D40" s="84"/>
@@ -6831,10 +7323,12 @@
       <c r="U40" s="84"/>
       <c r="V40" s="84"/>
       <c r="W40" s="84">
-        <v>2359.518</v>
+        <v>6704.8270000000002</v>
       </c>
       <c r="X40" s="84"/>
-      <c r="Y40" s="84"/>
+      <c r="Y40" s="84">
+        <v>7494.1319999999996</v>
+      </c>
       <c r="Z40" s="84"/>
       <c r="AA40" s="84"/>
       <c r="AB40" s="84"/>
@@ -6843,7 +7337,7 @@
     </row>
     <row r="41" spans="2:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="77" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="C41" s="84"/>
       <c r="D41" s="84"/>
@@ -6866,55 +7360,26 @@
       <c r="U41" s="84"/>
       <c r="V41" s="84"/>
       <c r="W41" s="84">
-        <v>1609.7260000000001</v>
-      </c>
-      <c r="X41" s="84"/>
-      <c r="Y41" s="84"/>
+        <f>SUM(W36:W40)</f>
+        <v>52087.643999999993</v>
+      </c>
+      <c r="X41" s="84">
+        <f>SUM(X36:X40)</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="84">
+        <f>SUM(Y36:Y40)</f>
+        <v>54934.834999999999</v>
+      </c>
       <c r="Z41" s="84"/>
       <c r="AA41" s="84"/>
       <c r="AB41" s="84"/>
       <c r="AD41" s="84"/>
       <c r="AE41" s="84"/>
     </row>
-    <row r="42" spans="2:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84"/>
-      <c r="R42" s="84"/>
-      <c r="S42" s="84"/>
-      <c r="T42" s="84"/>
-      <c r="U42" s="84"/>
-      <c r="V42" s="84"/>
-      <c r="W42" s="84">
-        <f>1005.881+14011.037</f>
-        <v>15016.918</v>
-      </c>
-      <c r="X42" s="84"/>
-      <c r="Y42" s="84"/>
-      <c r="Z42" s="84"/>
-      <c r="AA42" s="84"/>
-      <c r="AB42" s="84"/>
-      <c r="AD42" s="84"/>
-      <c r="AE42" s="84"/>
-    </row>
     <row r="43" spans="2:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="77" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C43" s="84"/>
       <c r="D43" s="84"/>
@@ -6937,10 +7402,14 @@
       <c r="U43" s="84"/>
       <c r="V43" s="84"/>
       <c r="W43" s="84">
-        <v>2633.3530000000001</v>
+        <f>4128.905+1696.662</f>
+        <v>5825.567</v>
       </c>
       <c r="X43" s="84"/>
-      <c r="Y43" s="84"/>
+      <c r="Y43" s="84">
+        <f>4102.64+1591.973</f>
+        <v>5694.6130000000003</v>
+      </c>
       <c r="Z43" s="84"/>
       <c r="AA43" s="84"/>
       <c r="AB43" s="84"/>
@@ -6949,7 +7418,7 @@
     </row>
     <row r="44" spans="2:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C44" s="84"/>
       <c r="D44" s="84"/>
@@ -6972,10 +7441,12 @@
       <c r="U44" s="84"/>
       <c r="V44" s="84"/>
       <c r="W44" s="84">
-        <v>24028.073</v>
+        <v>614.48900000000003</v>
       </c>
       <c r="X44" s="84"/>
-      <c r="Y44" s="84"/>
+      <c r="Y44" s="84">
+        <v>793.23299999999995</v>
+      </c>
       <c r="Z44" s="84"/>
       <c r="AA44" s="84"/>
       <c r="AB44" s="84"/>
@@ -6984,7 +7455,7 @@
     </row>
     <row r="45" spans="2:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="77" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C45" s="84"/>
       <c r="D45" s="84"/>
@@ -7007,16 +7478,781 @@
       <c r="U45" s="84"/>
       <c r="V45" s="84"/>
       <c r="W45" s="84">
-        <f>SUM(W38:W44)</f>
-        <v>52087.644</v>
+        <v>2359.518</v>
       </c>
       <c r="X45" s="84"/>
-      <c r="Y45" s="84"/>
+      <c r="Y45" s="84">
+        <v>3111.3110000000001</v>
+      </c>
       <c r="Z45" s="84"/>
       <c r="AA45" s="84"/>
       <c r="AB45" s="84"/>
       <c r="AD45" s="84"/>
       <c r="AE45" s="84"/>
+    </row>
+    <row r="46" spans="2:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="84"/>
+      <c r="P46" s="84"/>
+      <c r="Q46" s="84"/>
+      <c r="R46" s="84"/>
+      <c r="S46" s="84"/>
+      <c r="T46" s="84"/>
+      <c r="U46" s="84"/>
+      <c r="V46" s="84"/>
+      <c r="W46" s="84">
+        <v>1609.7260000000001</v>
+      </c>
+      <c r="X46" s="84"/>
+      <c r="Y46" s="84">
+        <v>1724.675</v>
+      </c>
+      <c r="Z46" s="84"/>
+      <c r="AA46" s="84"/>
+      <c r="AB46" s="84"/>
+      <c r="AD46" s="84"/>
+      <c r="AE46" s="84"/>
+    </row>
+    <row r="47" spans="2:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="84"/>
+      <c r="Q47" s="84"/>
+      <c r="R47" s="84"/>
+      <c r="S47" s="84"/>
+      <c r="T47" s="84"/>
+      <c r="U47" s="84"/>
+      <c r="V47" s="84"/>
+      <c r="W47" s="84">
+        <f>1005.881+14011.037</f>
+        <v>15016.918</v>
+      </c>
+      <c r="X47" s="84"/>
+      <c r="Y47" s="84">
+        <v>14463.02</v>
+      </c>
+      <c r="Z47" s="84"/>
+      <c r="AA47" s="84"/>
+      <c r="AB47" s="84"/>
+      <c r="AD47" s="84"/>
+      <c r="AE47" s="84"/>
+    </row>
+    <row r="48" spans="2:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="84"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="84"/>
+      <c r="P48" s="84"/>
+      <c r="Q48" s="84"/>
+      <c r="R48" s="84"/>
+      <c r="S48" s="84"/>
+      <c r="T48" s="84"/>
+      <c r="U48" s="84"/>
+      <c r="V48" s="84"/>
+      <c r="W48" s="84">
+        <v>2633.3530000000001</v>
+      </c>
+      <c r="X48" s="84"/>
+      <c r="Y48" s="84">
+        <v>3193.9479999999999</v>
+      </c>
+      <c r="Z48" s="84"/>
+      <c r="AA48" s="84"/>
+      <c r="AB48" s="84"/>
+      <c r="AD48" s="84"/>
+      <c r="AE48" s="84"/>
+    </row>
+    <row r="49" spans="2:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="84"/>
+      <c r="P49" s="84"/>
+      <c r="Q49" s="84"/>
+      <c r="R49" s="84"/>
+      <c r="S49" s="84"/>
+      <c r="T49" s="84"/>
+      <c r="U49" s="84"/>
+      <c r="V49" s="84"/>
+      <c r="W49" s="84">
+        <v>24028.073</v>
+      </c>
+      <c r="X49" s="84"/>
+      <c r="Y49" s="84">
+        <v>25954.035</v>
+      </c>
+      <c r="Z49" s="84"/>
+      <c r="AA49" s="84"/>
+      <c r="AB49" s="84"/>
+      <c r="AD49" s="84"/>
+      <c r="AE49" s="84"/>
+    </row>
+    <row r="50" spans="2:31" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="84"/>
+      <c r="R50" s="84"/>
+      <c r="S50" s="84"/>
+      <c r="T50" s="84"/>
+      <c r="U50" s="84"/>
+      <c r="V50" s="84"/>
+      <c r="W50" s="84">
+        <f>SUM(W43:W49)</f>
+        <v>52087.644</v>
+      </c>
+      <c r="X50" s="84">
+        <f>SUM(X43:X49)</f>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="84">
+        <f>SUM(Y43:Y49)</f>
+        <v>54934.834999999999</v>
+      </c>
+      <c r="Z50" s="84"/>
+      <c r="AA50" s="84"/>
+      <c r="AB50" s="84"/>
+      <c r="AD50" s="84"/>
+      <c r="AE50" s="84"/>
+    </row>
+    <row r="52" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B52" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="S52" s="84">
+        <f>+S26</f>
+        <v>2332.2089999999985</v>
+      </c>
+      <c r="T52" s="84">
+        <f t="shared" ref="T52:Y52" si="18">+T26</f>
+        <v>2147.3060000000014</v>
+      </c>
+      <c r="U52" s="84">
+        <f t="shared" si="18"/>
+        <v>2363.5089999999991</v>
+      </c>
+      <c r="V52" s="84">
+        <f t="shared" si="18"/>
+        <v>1868.6069999999995</v>
+      </c>
+      <c r="W52" s="84">
+        <f t="shared" si="18"/>
+        <v>2890.3509999999997</v>
+      </c>
+      <c r="X52" s="84">
+        <f t="shared" si="18"/>
+        <v>3125.4130000000009</v>
+      </c>
+      <c r="Y52" s="84">
+        <f t="shared" si="18"/>
+        <v>2546.9160000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B53" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="S53" s="84">
+        <v>2332.2089999999998</v>
+      </c>
+      <c r="T53" s="84">
+        <v>2147.306</v>
+      </c>
+      <c r="U53" s="84">
+        <v>2363.509</v>
+      </c>
+      <c r="V53" s="84">
+        <v>1868.607</v>
+      </c>
+      <c r="W53" s="84">
+        <v>2890.3510000000001</v>
+      </c>
+      <c r="X53" s="84">
+        <v>3125.413</v>
+      </c>
+      <c r="Y53" s="84">
+        <v>2546.9160000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B54" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="S54" s="84">
+        <f>-3728.967-189.441</f>
+        <v>-3918.4079999999999</v>
+      </c>
+      <c r="T54" s="84">
+        <f>-4048.852-366.572</f>
+        <v>-4415.424</v>
+      </c>
+      <c r="U54" s="84">
+        <f>-4016.396-83.585</f>
+        <v>-4099.9809999999998</v>
+      </c>
+      <c r="V54" s="84">
+        <f>-4429.402-139.537</f>
+        <v>-4568.9390000000003</v>
+      </c>
+      <c r="W54" s="84">
+        <f>-3549.657-411.253</f>
+        <v>-3960.9100000000003</v>
+      </c>
+      <c r="X54" s="84">
+        <f>-3835.813-214.052</f>
+        <v>-4049.8650000000002</v>
+      </c>
+      <c r="Y54" s="84">
+        <f>-4653.935+24.262</f>
+        <v>-4629.6730000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B55" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="S55" s="84">
+        <v>3670.8049999999998</v>
+      </c>
+      <c r="T55" s="84">
+        <v>3769.69</v>
+      </c>
+      <c r="U55" s="84">
+        <v>3699.5210000000002</v>
+      </c>
+      <c r="V55" s="84">
+        <v>4161.5010000000002</v>
+      </c>
+      <c r="W55" s="84">
+        <v>3823.1120000000001</v>
+      </c>
+      <c r="X55" s="84">
+        <v>3832.0740000000001</v>
+      </c>
+      <c r="Y55" s="84">
+        <v>4002.7440000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B56" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="S56" s="84">
+        <v>87.233999999999995</v>
+      </c>
+      <c r="T56" s="84">
+        <v>81.227000000000004</v>
+      </c>
+      <c r="U56" s="84">
+        <v>80.914000000000001</v>
+      </c>
+      <c r="V56" s="84">
+        <v>79.539000000000001</v>
+      </c>
+      <c r="W56" s="84">
+        <v>80.066999999999993</v>
+      </c>
+      <c r="X56" s="84">
+        <v>80.013000000000005</v>
+      </c>
+      <c r="Y56" s="84">
+        <v>87.325999999999993</v>
+      </c>
+    </row>
+    <row r="57" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B57" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="S57" s="84">
+        <v>76.344999999999999</v>
+      </c>
+      <c r="T57" s="84">
+        <v>68.766000000000005</v>
+      </c>
+      <c r="U57" s="84">
+        <v>65.650000000000006</v>
+      </c>
+      <c r="V57" s="84">
+        <v>61.826999999999998</v>
+      </c>
+      <c r="W57" s="84">
+        <v>71.977000000000004</v>
+      </c>
+      <c r="X57" s="84">
+        <v>80.861999999999995</v>
+      </c>
+      <c r="Y57" s="84">
+        <v>80.986000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B58" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="S58" s="84">
+        <v>-130.80099999999999</v>
+      </c>
+      <c r="T58" s="84">
+        <v>-42.692</v>
+      </c>
+      <c r="U58" s="84">
+        <v>104.809</v>
+      </c>
+      <c r="V58" s="84">
+        <v>-52.854999999999997</v>
+      </c>
+      <c r="W58" s="84">
+        <v>28.547000000000001</v>
+      </c>
+      <c r="X58" s="84">
+        <v>55.238</v>
+      </c>
+      <c r="Y58" s="84">
+        <v>-1.7070000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B59" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="S59" s="84">
+        <v>97.180999999999997</v>
+      </c>
+      <c r="T59" s="84">
+        <v>138.58799999999999</v>
+      </c>
+      <c r="U59" s="84">
+        <v>128.08199999999999</v>
+      </c>
+      <c r="V59" s="84">
+        <v>130.92699999999999</v>
+      </c>
+      <c r="W59" s="84">
+        <v>114.73</v>
+      </c>
+      <c r="X59" s="84">
+        <v>120.139</v>
+      </c>
+      <c r="Y59" s="84">
+        <v>142.29300000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B60" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="S60" s="84">
+        <v>-107.077</v>
+      </c>
+      <c r="T60" s="84">
+        <v>-209.387</v>
+      </c>
+      <c r="U60" s="84">
+        <v>-200.982</v>
+      </c>
+      <c r="V60" s="84">
+        <v>-73.251999999999995</v>
+      </c>
+      <c r="W60" s="84">
+        <v>-163.928</v>
+      </c>
+      <c r="X60" s="84">
+        <v>-135.755</v>
+      </c>
+      <c r="Y60" s="84">
+        <v>20.539000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B61" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="S61" s="84">
+        <v>105.03400000000001</v>
+      </c>
+      <c r="T61" s="84">
+        <v>-247.227</v>
+      </c>
+      <c r="U61" s="84">
+        <v>179.57900000000001</v>
+      </c>
+      <c r="V61" s="84">
+        <v>-70.460999999999999</v>
+      </c>
+      <c r="W61" s="84">
+        <v>-94.747</v>
+      </c>
+      <c r="X61" s="84">
+        <f>-176.683+11.046-267.235+118.635-370.624</f>
+        <v>-684.8610000000001</v>
+      </c>
+      <c r="Y61" s="84">
+        <f>-169.597+139.451+707.151-3.686-97.569</f>
+        <v>575.74999999999989</v>
+      </c>
+    </row>
+    <row r="62" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B62" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="S62" s="84">
+        <f>SUM(S53:S61)</f>
+        <v>2212.5219999999995</v>
+      </c>
+      <c r="T62" s="84">
+        <f>SUM(T53:T61)</f>
+        <v>1290.8470000000002</v>
+      </c>
+      <c r="U62" s="84">
+        <f>SUM(U53:U61)</f>
+        <v>2321.1010000000006</v>
+      </c>
+      <c r="V62" s="84">
+        <f>SUM(V53:V61)</f>
+        <v>1536.8939999999998</v>
+      </c>
+      <c r="W62" s="84">
+        <f t="shared" ref="W62:Y62" si="19">SUM(W53:W61)</f>
+        <v>2789.1990000000001</v>
+      </c>
+      <c r="X62" s="84">
+        <f t="shared" si="19"/>
+        <v>2423.2579999999998</v>
+      </c>
+      <c r="Y62" s="84">
+        <f t="shared" si="19"/>
+        <v>2825.174</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B64" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="S64" s="84">
+        <v>-75.713999999999999</v>
+      </c>
+      <c r="T64" s="84">
+        <v>-78.287000000000006</v>
+      </c>
+      <c r="U64" s="84">
+        <v>-126.863</v>
+      </c>
+      <c r="V64" s="84">
+        <v>-158.67400000000001</v>
+      </c>
+      <c r="W64" s="84">
+        <v>-128.27699999999999</v>
+      </c>
+      <c r="X64" s="84">
+        <v>-155.88900000000001</v>
+      </c>
+      <c r="Y64" s="84">
+        <v>-164.71899999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B65" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="S65" s="84">
+        <v>0</v>
+      </c>
+      <c r="T65" s="84">
+        <v>0</v>
+      </c>
+      <c r="U65" s="84">
+        <v>-1742.2460000000001</v>
+      </c>
+      <c r="V65" s="84">
+        <v>0</v>
+      </c>
+      <c r="W65" s="84">
+        <f>-156.015+769.954</f>
+        <v>613.93899999999996</v>
+      </c>
+      <c r="X65" s="84">
+        <f>-1.65+962.413</f>
+        <v>960.76300000000003</v>
+      </c>
+      <c r="Y65" s="84">
+        <f>-3.85+176.25</f>
+        <v>172.4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B66" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="S66" s="84">
+        <v>0</v>
+      </c>
+      <c r="T66" s="84">
+        <v>0</v>
+      </c>
+      <c r="U66" s="84">
+        <v>0</v>
+      </c>
+      <c r="V66" s="84">
+        <v>0</v>
+      </c>
+      <c r="W66" s="84"/>
+      <c r="X66" s="84">
+        <v>-36.19</v>
+      </c>
+      <c r="Y66" s="84">
+        <v>36.19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B67" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="S67" s="84">
+        <f>+S64+S65+S66</f>
+        <v>-75.713999999999999</v>
+      </c>
+      <c r="T67" s="84">
+        <f t="shared" ref="T67:Y67" si="20">+T64+T65+T66</f>
+        <v>-78.287000000000006</v>
+      </c>
+      <c r="U67" s="84">
+        <f t="shared" si="20"/>
+        <v>-1869.1090000000002</v>
+      </c>
+      <c r="V67" s="84">
+        <f t="shared" si="20"/>
+        <v>-158.67400000000001</v>
+      </c>
+      <c r="W67" s="84">
+        <f t="shared" si="20"/>
+        <v>485.66199999999998</v>
+      </c>
+      <c r="X67" s="84">
+        <f t="shared" si="20"/>
+        <v>768.68399999999997</v>
+      </c>
+      <c r="Y67" s="84">
+        <f t="shared" si="20"/>
+        <v>43.871000000000009</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B69" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="S69" s="84">
+        <v>-400</v>
+      </c>
+      <c r="T69" s="84">
+        <v>0</v>
+      </c>
+      <c r="U69" s="84">
+        <f>1794.46</f>
+        <v>1794.46</v>
+      </c>
+      <c r="V69" s="84">
+        <v>0</v>
+      </c>
+      <c r="W69" s="84">
+        <v>-800</v>
+      </c>
+      <c r="X69" s="84">
+        <v>-1033.45</v>
+      </c>
+      <c r="Y69" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B70" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="S70" s="84">
+        <f>268.881-2000-1.825</f>
+        <v>-1732.9440000000002</v>
+      </c>
+      <c r="T70" s="84">
+        <f>118.75-1599.998-1.883</f>
+        <v>-1483.1310000000001</v>
+      </c>
+      <c r="U70" s="84">
+        <f>-1700+143.244-2.024</f>
+        <v>-1558.78</v>
+      </c>
+      <c r="V70" s="84">
+        <f>302.012-963.748-2.553</f>
+        <v>-664.2890000000001</v>
+      </c>
+      <c r="W70" s="84">
+        <f>351.602-3536.396-27.87</f>
+        <v>-3212.6640000000002</v>
+      </c>
+      <c r="X70" s="84">
+        <f>169.066-1654.327-6.114</f>
+        <v>-1491.375</v>
+      </c>
+      <c r="Y70" s="84">
+        <f>70.215-1856.885-6.196</f>
+        <v>-1792.866</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B71" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="S71" s="84">
+        <v>0</v>
+      </c>
+      <c r="T71" s="84">
+        <v>-6.25</v>
+      </c>
+      <c r="U71" s="84">
+        <v>-9.0839999999999996</v>
+      </c>
+      <c r="V71" s="84">
+        <v>-14.409000000000001</v>
+      </c>
+      <c r="W71" s="84">
+        <v>-15.651999999999999</v>
+      </c>
+      <c r="X71" s="84">
+        <v>21.957000000000001</v>
+      </c>
+      <c r="Y71" s="84">
+        <v>55.837000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B72" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="S72" s="84">
+        <f>SUM(S69:S71)</f>
+        <v>-2132.9440000000004</v>
+      </c>
+      <c r="T72" s="84">
+        <f>SUM(T69:T71)</f>
+        <v>-1489.3810000000001</v>
+      </c>
+      <c r="U72" s="84">
+        <f>SUM(U69:U71)</f>
+        <v>226.59600000000006</v>
+      </c>
+      <c r="V72" s="84">
+        <f>SUM(V69:V71)</f>
+        <v>-678.69800000000009</v>
+      </c>
+      <c r="W72" s="84">
+        <f>SUM(W69:W71)</f>
+        <v>-4028.3160000000003</v>
+      </c>
+      <c r="X72" s="84">
+        <f>SUM(X69:X71)</f>
+        <v>-2502.8679999999999</v>
+      </c>
+      <c r="Y72" s="84">
+        <f>SUM(Y69:Y71)</f>
+        <v>-1737.029</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B73" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="S73" s="84">
+        <f>+S72+S67+S62</f>
+        <v>3.8639999999991232</v>
+      </c>
+      <c r="T73" s="84">
+        <f>+T72+T67+T62</f>
+        <v>-276.82099999999991</v>
+      </c>
+      <c r="U73" s="84">
+        <f>+U72+U67+U62</f>
+        <v>678.58800000000042</v>
+      </c>
+      <c r="V73" s="84">
+        <f>+V72+V67+V62</f>
+        <v>699.52199999999971</v>
+      </c>
+      <c r="W73" s="84">
+        <f>+W72+W67+W62</f>
+        <v>-753.45500000000038</v>
+      </c>
+      <c r="X73" s="84">
+        <f>+X72+X67+X62</f>
+        <v>689.07399999999984</v>
+      </c>
+      <c r="Y73" s="84">
+        <f>+Y72+Y67+Y62</f>
+        <v>1132.0160000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.35" right="0.24" top="0.27" bottom="0.75" header="0.17" footer="0.3"/>
